--- a/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
@@ -1407,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2018,16 +2018,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FAM1_DIAB2</t>
+          <t>FAM1_CHD_STROKE</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>don't know</t>
         </is>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2038,26 +2038,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FAM1_CANCER</t>
+          <t>FAM1_DIAB2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2068,47 +2068,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DRE_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DRE_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>don't know</t>
         </is>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PSA_SCREEN</t>
+          <t>DRE_SCREEN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2123,7 +2123,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PSA_SCREEN</t>
+          <t>DRE_SCREEN</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2138,7 +2138,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FOBT_SCREEN</t>
+          <t>PSA_SCREEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>FOBT_SCREEN</t>
+          <t>PSA_SCREEN</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2168,7 +2168,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>COL_SCREEN</t>
+          <t>FOBT_SCREEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2183,7 +2183,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>COL_SCREEN</t>
+          <t>FOBT_SCREEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MELANOMA_SCREEN</t>
+          <t>COL_SCREEN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MELANOMA_SCREEN</t>
+          <t>COL_SCREEN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2228,7 +2228,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MAMMO_SCREEN</t>
+          <t>MELANOMA_SCREEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MAMMO_SCREEN</t>
+          <t>MELANOMA_SCREEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CERVICAL_SCREEN</t>
+          <t>MAMMO_SCREEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2273,7 +2273,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CERVICAL_SCREEN</t>
+          <t>MAMMO_SCREEN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>CERVICAL_SCREEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>CERVICAL_SCREEN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INC_CVD</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2363,7 +2363,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INC_CVD</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INC_ANGINA</t>
+          <t>INC_CVD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INC_ANGINA</t>
+          <t>INC_CVD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2408,7 +2408,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INC_MI</t>
+          <t>INC_ANGINA</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INC_MI</t>
+          <t>INC_ANGINA</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INC_STR</t>
+          <t>INC_MI</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2453,7 +2453,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INC_STR</t>
+          <t>INC_MI</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INC_ISC_STR</t>
+          <t>INC_STR</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2483,7 +2483,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INC_ISC_STR</t>
+          <t>INC_STR</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INC_HAEMO_STR</t>
+          <t>INC_ISC_STR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INC_HAEMO_STR</t>
+          <t>INC_ISC_STR</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INC_HYP</t>
+          <t>INC_HAEMO_STR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INC_HYP</t>
+          <t>INC_HAEMO_STR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INC_HF</t>
+          <t>INC_HYP</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2573,7 +2573,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INC_HF</t>
+          <t>INC_HYP</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INC_DIAB2</t>
+          <t>INC_HF</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INC_DIAB2</t>
+          <t>INC_HF</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INC_CANCER</t>
+          <t>INC_DIAB2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INC_CANCER</t>
+          <t>INC_DIAB2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VITAL_ST</t>
+          <t>INC_CANCER</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>VITAL_ST</t>
+          <t>INC_CANCER</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>VITAL_ST_CVD</t>
+          <t>VITAL_ST</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VITAL_ST_CVD</t>
+          <t>VITAL_ST</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VITAL_ST_CANCER</t>
+          <t>VITAL_ST_CVD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2723,15 +2723,45 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>VITAL_ST_CVD</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>VITAL_ST_CANCER</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C88">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>VITAL_ST_CANCER</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C90">
         <v>1</v>
       </c>
     </row>

--- a/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>don't know</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C41">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>don't know</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C46">

--- a/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
@@ -1407,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2063,16 +2063,16 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FAM1_CANCER</t>
+          <t>FAM1_DIAB2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -2083,11 +2083,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2098,26 +2098,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DRE_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2128,26 +2128,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PSA_SCREEN</t>
+          <t>DRE_SCREEN</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2158,26 +2158,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FOBT_SCREEN</t>
+          <t>PSA_SCREEN</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2188,26 +2188,26 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>COL_SCREEN</t>
+          <t>FOBT_SCREEN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2218,26 +2218,26 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MELANOMA_SCREEN</t>
+          <t>COL_SCREEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2248,26 +2248,26 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAMMO_SCREEN</t>
+          <t>MELANOMA_SCREEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2278,26 +2278,26 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CERVICAL_SCREEN</t>
+          <t>MAMMO_SCREEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2308,26 +2308,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>CERVICAL_SCREEN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2338,26 +2338,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2368,26 +2368,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INC_CVD</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2398,26 +2398,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INC_ANGINA</t>
+          <t>INC_CVD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2428,26 +2428,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INC_MI</t>
+          <t>INC_ANGINA</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2458,26 +2458,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INC_STR</t>
+          <t>INC_MI</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2488,26 +2488,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INC_ISC_STR</t>
+          <t>INC_STR</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2518,26 +2518,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INC_HAEMO_STR</t>
+          <t>INC_ISC_STR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2548,26 +2548,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INC_HYP</t>
+          <t>INC_HAEMO_STR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2578,26 +2578,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INC_HF</t>
+          <t>INC_HYP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2608,26 +2608,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INC_DIAB2</t>
+          <t>INC_HF</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2638,26 +2638,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INC_CANCER</t>
+          <t>INC_DIAB2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2668,26 +2668,26 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>VITAL_ST</t>
+          <t>INC_CANCER</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2698,26 +2698,26 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VITAL_ST_CVD</t>
+          <t>VITAL_ST</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2728,26 +2728,26 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>VITAL_ST_CANCER</t>
+          <t>VITAL_ST_CVD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -2758,10 +2758,25 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>VITAL_ST_CANCER</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C91">
         <v>1</v>
       </c>
     </row>

--- a/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
+++ b/analyst/Tracy/rmonize/data_schema/Dataschema_TRACY.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Highest level of education [ISCED 2011]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1407,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>Early Childhood Education</t>
         </is>
       </c>
       <c r="C4">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>primary school completed</t>
+          <t>Primary Education</t>
         </is>
       </c>
       <c r="C5">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>technical/professional school completed</t>
+          <t>Lower Secondary Education</t>
         </is>
       </c>
       <c r="C6">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>secondary school</t>
+          <t>Upper Secondary Education</t>
         </is>
       </c>
       <c r="C7">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>longer education (incl. university)</t>
+          <t>Post-secondary non-tertiary education</t>
         </is>
       </c>
       <c r="C8">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>not specified</t>
+          <t>Short-Cycle Tertiary Education</t>
         </is>
       </c>
       <c r="C9">
@@ -1553,72 +1553,72 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SMOKE_ST</t>
+          <t>EDU_LEVEL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>never</t>
+          <t>Bachelor's or equivalent level</t>
         </is>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SMOKE_ST</t>
+          <t>EDU_LEVEL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>former</t>
+          <t>Master's or equivalent level</t>
         </is>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SMOKE_ST</t>
+          <t>EDU_LEVEL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>current</t>
+          <t>Doctoral or equivalent level</t>
         </is>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SMOKE_ST</t>
+          <t>EDU_LEVEL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>unknown</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMPLOY</t>
+          <t>SMOKE_ST</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>employed-full time</t>
+          <t>never</t>
         </is>
       </c>
       <c r="C14">
@@ -1628,12 +1628,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMPLOY</t>
+          <t>SMOKE_ST</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>employed-part time</t>
+          <t>former</t>
         </is>
       </c>
       <c r="C15">
@@ -1643,12 +1643,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMPLOY</t>
+          <t>SMOKE_ST</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>housewife</t>
+          <t>current</t>
         </is>
       </c>
       <c r="C16">
@@ -1658,12 +1658,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMPLOY</t>
+          <t>SMOKE_ST</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>retired</t>
+          <t>unknown</t>
         </is>
       </c>
       <c r="C17">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>unemployed</t>
+          <t>employed-full time</t>
         </is>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>employed-part time</t>
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1708,82 +1708,82 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>housewife</t>
         </is>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IMMIGRATION</t>
+          <t>EMPLOY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>retired</t>
         </is>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IMMIGRATION</t>
+          <t>EMPLOY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>unemployed</t>
         </is>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MED_SUPPL</t>
+          <t>EMPLOY</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>student</t>
         </is>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MED_SUPPL</t>
+          <t>EMPLOY</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MENOPAUSE</t>
+          <t>IMMIGRATION</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>premenopausal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C25">
@@ -1793,12 +1793,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MENOPAUSE</t>
+          <t>IMMIGRATION</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>postmenopausal</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C26">
@@ -1808,42 +1808,42 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MENOPAUSE</t>
+          <t>MED_SUPPL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>perimenopausal</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MENOPAUSE</t>
+          <t>MED_SUPPL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>surgical postmenopausal (bilateral ovariectomy)</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HRT</t>
+          <t>MENOPAUSE</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>premenopausal</t>
         </is>
       </c>
       <c r="C29">
@@ -1853,12 +1853,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HRT</t>
+          <t>MENOPAUSE</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>postmenopausal</t>
         </is>
       </c>
       <c r="C30">
@@ -1868,37 +1868,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PREV_DIAB</t>
+          <t>MENOPAUSE</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>perimenopausal</t>
         </is>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PREV_DIAB</t>
+          <t>MENOPAUSE</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>surgical postmenopausal (bilateral ovariectomy)</t>
         </is>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PREV_HYP</t>
+          <t>HRT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1913,7 +1913,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PREV_HYP</t>
+          <t>HRT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1928,7 +1928,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PREV_CVD</t>
+          <t>PREV_DIAB</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1943,7 +1943,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PREV_CVD</t>
+          <t>PREV_DIAB</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PREV_CANCER</t>
+          <t>PREV_HYP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1973,7 +1973,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PREV_CANCER</t>
+          <t>PREV_HYP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1988,7 +1988,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FAM1_CHD_STROKE</t>
+          <t>PREV_CVD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2003,7 +2003,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>FAM1_CHD_STROKE</t>
+          <t>PREV_CVD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2018,172 +2018,172 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FAM1_CHD_STROKE</t>
+          <t>PREV_CANCER</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FAM1_DIAB2</t>
+          <t>PREV_CANCER</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FAM1_DIAB2</t>
+          <t>FAM1_CHD_STROKE</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FAM1_DIAB2</t>
+          <t>FAM1_CHD_STROKE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FAM1_CANCER</t>
+          <t>FAM1_CHD_STROKE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FAM1_CANCER</t>
+          <t>FAM1_DIAB2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FAM1_CANCER</t>
+          <t>FAM1_DIAB2</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DRE_SCREEN</t>
+          <t>FAM1_DIAB2</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DRE_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PSA_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PSA_SCREEN</t>
+          <t>FAM1_CANCER</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>I don't know</t>
         </is>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FOBT_SCREEN</t>
+          <t>DRE_SCREEN</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FOBT_SCREEN</t>
+          <t>DRE_SCREEN</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COL_SCREEN</t>
+          <t>PSA_SCREEN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2228,7 +2228,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COL_SCREEN</t>
+          <t>PSA_SCREEN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2243,7 +2243,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MELANOMA_SCREEN</t>
+          <t>FOBT_SCREEN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2258,7 +2258,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MELANOMA_SCREEN</t>
+          <t>FOBT_SCREEN</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2273,7 +2273,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MAMMO_SCREEN</t>
+          <t>COL_SCREEN</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MAMMO_SCREEN</t>
+          <t>COL_SCREEN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CERVICAL_SCREEN</t>
+          <t>MELANOMA_SCREEN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2318,7 +2318,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CERVICAL_SCREEN</t>
+          <t>MELANOMA_SCREEN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>MAMMO_SCREEN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2348,7 +2348,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>MAMMO_SCREEN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2363,7 +2363,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>CERVICAL_SCREEN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2378,7 +2378,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>CERVICAL_SCREEN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2393,7 +2393,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INC_CVD</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2408,7 +2408,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INC_CVD</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INC_ANGINA</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2438,7 +2438,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INC_ANGINA</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2453,7 +2453,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INC_MI</t>
+          <t>INC_CVD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2468,7 +2468,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INC_MI</t>
+          <t>INC_CVD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2483,7 +2483,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INC_STR</t>
+          <t>INC_ANGINA</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2498,7 +2498,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INC_STR</t>
+          <t>INC_ANGINA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2513,7 +2513,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INC_ISC_STR</t>
+          <t>INC_MI</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2528,7 +2528,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INC_ISC_STR</t>
+          <t>INC_MI</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2543,7 +2543,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INC_HAEMO_STR</t>
+          <t>INC_STR</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2558,7 +2558,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INC_HAEMO_STR</t>
+          <t>INC_STR</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2573,7 +2573,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INC_HYP</t>
+          <t>INC_ISC_STR</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INC_HYP</t>
+          <t>INC_ISC_STR</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2603,7 +2603,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INC_HF</t>
+          <t>INC_HAEMO_STR</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2618,7 +2618,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INC_HF</t>
+          <t>INC_HAEMO_STR</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INC_DIAB2</t>
+          <t>INC_HYP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INC_DIAB2</t>
+          <t>INC_HYP</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2663,7 +2663,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INC_CANCER</t>
+          <t>INC_HF</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2678,7 +2678,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INC_CANCER</t>
+          <t>INC_HF</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2693,7 +2693,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VITAL_ST</t>
+          <t>INC_DIAB2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2708,7 +2708,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VITAL_ST</t>
+          <t>INC_DIAB2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2723,7 +2723,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>VITAL_ST_CVD</t>
+          <t>INC_CANCER</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2738,7 +2738,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>VITAL_ST_CVD</t>
+          <t>INC_CANCER</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2753,7 +2753,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>VITAL_ST_CANCER</t>
+          <t>VITAL_ST</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2768,15 +2768,75 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>VITAL_ST</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>VITAL_ST_CVD</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>VITAL_ST_CVD</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>VITAL_ST_CANCER</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C91">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>VITAL_ST_CANCER</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C95">
         <v>1</v>
       </c>
     </row>
